--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uipath\Emergenteck\My Resumes\0NEW Resume\Vajrang UiPath\Mukesh Kala\Loan Processing Bot Project\Incomplete Template\TEMPLATE_REF_DT\Template_REF_DataTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9858F8C-DB7E-4997-80F8-82A313F76DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04707B9C-57AD-451E-BAEA-AF3412A709F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>CSV file to read the transactions.</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>LoanData</t>
+  </si>
+  <si>
+    <t>Sheet name for the data</t>
+  </si>
+  <si>
+    <t>LoanTerm</t>
+  </si>
+  <si>
+    <t>1,3,5,10</t>
+  </si>
+  <si>
+    <t>Terms for Loan</t>
   </si>
 </sst>
 </file>
@@ -622,7 +640,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -812,9 +830,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uipath\Emergenteck\My Resumes\0NEW Resume\Vajrang UiPath\Mukesh Kala\Loan Processing Bot Project\Incomplete Template\TEMPLATE_REF_DT\Template_REF_DataTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04707B9C-57AD-451E-BAEA-AF3412A709F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D19F2A-7F9C-4134-AE55-590DE81B4DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -262,13 +262,22 @@
   </si>
   <si>
     <t>Terms for Loan</t>
+  </si>
+  <si>
+    <t>StatusColumn</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Write the Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -292,6 +301,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,8 +339,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -722,7 +740,7 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -853,7 +871,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1832,8 +1860,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{9195C3CA-4AFB-424D-9084-9FD5D2036456}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
